--- a/product_backlog.xlsx
+++ b/product_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\下载\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD45ED95-E8B5-4F1B-98FD-DC465C83B5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E197D3E8-C453-4527-8AFD-1F09FB5D2D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Story ID</t>
   </si>
@@ -55,48 +55,22 @@
     <t>Query Account Balance via Natural Language</t>
   </si>
   <si>
-    <t>Query Monthly Expenses via Natural Language</t>
-  </si>
-  <si>
     <t>AI Assistant Provides Saving Recommendations</t>
   </si>
   <si>
     <t>Record Transactions via Speech/Text Input</t>
   </si>
   <si>
-    <t>As a user, I want the AI assistant to analyze my spending patterns and provide saving recommendations via natural language, so that I can make smarter financial decisions.</t>
-  </si>
-  <si>
-    <t>As a user, I want to record new transactions quickly via speech or text input, so that I don't need to enter transactions manually.</t>
-  </si>
-  <si>
     <t>Must have</t>
   </si>
   <si>
     <t>Should have</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Core functionality</t>
   </si>
   <si>
     <t>Enhancement</t>
-  </si>
-  <si>
-    <t>As a user, I want to query my current account balance using natural language , so that I can quickly understand my financial situation.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>As a user,I would like to use natural language to look up my total expenses and specific expense categories for a particular period of time, so that I can manage my finances better.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. System returns total expense upon user's request.
@@ -120,6 +94,56 @@
   <si>
     <t>1. System accurately captures date, amount, and category from user's input.
 2. User receives confirmation or prompt to complete incomplete entries.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query Time-specific Expenses via Natural Language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra large</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.3.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.3.14</t>
+  </si>
+  <si>
+    <t>2025.3.15</t>
+  </si>
+  <si>
+    <t>As a user, 
+I want to query my current account balance using natural language , 
+so that I can quickly understand my financial situation.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a user,
+I would like to use natural language to look up my total expenses and specific expense categories for a particular period of time, 
+so that I can manage my finances better.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a user, 
+I want the AI assistant to analyze my spending patterns and provide saving recommendations via natural language,
+ so that I can make smarter financial decisions.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a user, 
+I want to record new transactions quickly via speech or text input, 
+so that I don't need to enter transactions manually.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +525,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -509,7 +533,7 @@
     <col min="2" max="2" width="50.44140625" customWidth="1"/>
     <col min="3" max="3" width="39.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
     <col min="6" max="6" width="30.21875" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
@@ -556,49 +580,55 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
@@ -606,25 +636,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
@@ -632,25 +665,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
